--- a/docs/orçamento.xlsx
+++ b/docs/orçamento.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Desenvolvimento\Desktop\GITHUB\TCC-SENAI\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6764CE80-A20F-4C4C-ADB7-A3EEB57FA7E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{16A497B1-3FD6-46FE-A8B5-43A1D16F2CAA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{3E95825D-2129-454F-93B8-6D0A5735ED46}"/>
+    <workbookView xWindow="3795" yWindow="1830" windowWidth="21630" windowHeight="11385" xr2:uid="{3E95825D-2129-454F-93B8-6D0A5735ED46}"/>
   </bookViews>
   <sheets>
     <sheet name="Orcamento" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="27">
   <si>
     <t>Custos Diretos</t>
   </si>
@@ -111,6 +111,12 @@
   </si>
   <si>
     <t>SAC (Diário)</t>
+  </si>
+  <si>
+    <t>C/ Indiretos</t>
+  </si>
+  <si>
+    <t>S/ Indiretos</t>
   </si>
 </sst>
 </file>
@@ -182,7 +188,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -225,12 +231,51 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -271,6 +316,13 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Moeda" xfId="1" builtinId="4"/>
@@ -586,10 +638,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69869FFD-CC36-4E60-BA0E-F8D5101A44F8}">
-  <dimension ref="C1:M27"/>
+  <dimension ref="C1:P27"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="J19" sqref="J19"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -598,15 +650,19 @@
     <col min="3" max="3" width="16.140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15" customWidth="1"/>
     <col min="5" max="5" width="11.85546875" customWidth="1"/>
-    <col min="6" max="6" width="12.42578125" customWidth="1"/>
+    <col min="6" max="6" width="13.140625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="13.28515625" customWidth="1"/>
     <col min="8" max="8" width="14.28515625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="10.42578125" customWidth="1"/>
     <col min="10" max="10" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="13.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="3:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="3:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
       <c r="J1" s="1"/>
@@ -614,7 +670,7 @@
       <c r="L1" s="1"/>
       <c r="M1" s="1"/>
     </row>
-    <row r="2" spans="3:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="3:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C2" s="16" t="s">
         <v>0</v>
       </c>
@@ -624,18 +680,28 @@
       <c r="G2" s="16"/>
       <c r="H2" s="16"/>
       <c r="I2" s="1"/>
-      <c r="M2" s="1"/>
-    </row>
-    <row r="3" spans="3:13" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K2" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="L2" s="21"/>
+      <c r="M2" s="21"/>
+      <c r="N2" s="21"/>
+      <c r="O2" s="21"/>
+    </row>
+    <row r="3" spans="3:16" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C3" s="17"/>
       <c r="D3" s="17"/>
       <c r="E3" s="17"/>
       <c r="F3" s="17"/>
       <c r="G3" s="17"/>
       <c r="H3" s="17"/>
-      <c r="K3" s="13"/>
-    </row>
-    <row r="4" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="K3" s="17"/>
+      <c r="L3" s="17"/>
+      <c r="M3" s="17"/>
+      <c r="N3" s="17"/>
+      <c r="O3" s="17"/>
+    </row>
+    <row r="4" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C4" s="2" t="s">
         <v>1</v>
       </c>
@@ -654,9 +720,23 @@
       <c r="H4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="12"/>
-    </row>
-    <row r="5" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="K4" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="M4" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="N4" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="O4" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C5" s="2" t="s">
         <v>18</v>
       </c>
@@ -664,20 +744,36 @@
         <v>7</v>
       </c>
       <c r="E5" s="2">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="F5" s="2">
         <v>1</v>
       </c>
       <c r="G5" s="2">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="H5" s="3">
         <f>E5*G5*F5</f>
-        <v>1500</v>
-      </c>
-    </row>
-    <row r="6" spans="3:13" x14ac:dyDescent="0.25">
+        <v>400</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="M5" s="3">
+        <v>70</v>
+      </c>
+      <c r="N5" s="2">
+        <v>12</v>
+      </c>
+      <c r="O5" s="3">
+        <f>M5*N5</f>
+        <v>840</v>
+      </c>
+    </row>
+    <row r="6" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C6" s="2" t="s">
         <v>23</v>
       </c>
@@ -691,14 +787,20 @@
         <v>1</v>
       </c>
       <c r="G6" s="2">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="H6" s="3">
         <f>E6*G6*F6</f>
-        <v>800</v>
-      </c>
-    </row>
-    <row r="7" spans="3:13" x14ac:dyDescent="0.25">
+        <v>1600</v>
+      </c>
+      <c r="K6" s="5"/>
+      <c r="L6" s="5"/>
+      <c r="M6" s="5"/>
+      <c r="N6" s="5"/>
+      <c r="O6" s="5"/>
+      <c r="P6" s="7"/>
+    </row>
+    <row r="7" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C7" s="2" t="s">
         <v>20</v>
       </c>
@@ -706,20 +808,27 @@
         <v>7</v>
       </c>
       <c r="E7" s="2">
-        <v>160</v>
+        <v>80</v>
       </c>
       <c r="F7" s="2">
         <v>1</v>
       </c>
       <c r="G7" s="2">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="H7" s="3">
         <f>E7*G7*F7</f>
-        <v>2880</v>
-      </c>
-    </row>
-    <row r="8" spans="3:13" x14ac:dyDescent="0.25">
+        <v>1200</v>
+      </c>
+      <c r="N7" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="O7" s="3">
+        <f>SUM(O5:O6)</f>
+        <v>840</v>
+      </c>
+    </row>
+    <row r="8" spans="3:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C8" s="2" t="s">
         <v>21</v>
       </c>
@@ -727,20 +836,21 @@
         <v>7</v>
       </c>
       <c r="E8" s="2">
-        <v>160</v>
+        <v>80</v>
       </c>
       <c r="F8" s="2">
         <v>1</v>
       </c>
       <c r="G8" s="2">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="H8" s="3">
         <f>E8*G8*F8</f>
-        <v>4000</v>
-      </c>
-    </row>
-    <row r="9" spans="3:13" x14ac:dyDescent="0.25">
+        <v>2400</v>
+      </c>
+      <c r="P8" s="3"/>
+    </row>
+    <row r="9" spans="3:16" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C9" s="2" t="s">
         <v>22</v>
       </c>
@@ -748,20 +858,29 @@
         <v>7</v>
       </c>
       <c r="E9" s="2">
-        <v>160</v>
+        <v>20</v>
       </c>
       <c r="F9" s="2">
         <v>1</v>
       </c>
       <c r="G9" s="2">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="H9" s="3">
         <f>E9*G9*F9</f>
-        <v>5600</v>
-      </c>
-    </row>
-    <row r="10" spans="3:13" x14ac:dyDescent="0.25">
+        <v>500</v>
+      </c>
+      <c r="K9" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="L9" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="N9" s="19" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10" spans="3:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C10" s="5" t="s">
         <v>24</v>
       </c>
@@ -769,7 +888,7 @@
         <v>10</v>
       </c>
       <c r="E10" s="5">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F10" s="5">
         <v>1</v>
@@ -779,26 +898,40 @@
       </c>
       <c r="H10" s="6">
         <f>E10*G10</f>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="11" spans="3:13" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+      <c r="K10" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="L10" s="12">
+        <f>H10*30</f>
+        <v>1500</v>
+      </c>
+      <c r="N10" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="O10" s="15">
+        <f>H11+O7+L10</f>
+        <v>8490</v>
+      </c>
+    </row>
+    <row r="11" spans="3:16" x14ac:dyDescent="0.25">
       <c r="D11" s="4" t="s">
         <v>16</v>
       </c>
       <c r="E11" s="9">
         <f>SUM(E5:E10)</f>
-        <v>664</v>
+        <v>282</v>
       </c>
       <c r="G11" s="4" t="s">
         <v>11</v>
       </c>
       <c r="H11" s="3">
         <f>SUM(H5:H10)</f>
-        <v>14880</v>
-      </c>
-    </row>
-    <row r="12" spans="3:13" x14ac:dyDescent="0.25">
+        <v>6150</v>
+      </c>
+    </row>
+    <row r="12" spans="3:16" x14ac:dyDescent="0.25">
       <c r="D12" s="8" t="s">
         <v>17</v>
       </c>
@@ -806,116 +939,48 @@
         <v>70</v>
       </c>
     </row>
-    <row r="14" spans="3:13" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="C14" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="D14" s="13" t="s">
-        <v>14</v>
+    <row r="13" spans="3:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="14" spans="3:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C14" s="20" t="s">
+        <v>26</v>
       </c>
       <c r="K14" s="11"/>
     </row>
-    <row r="15" spans="3:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C15" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D15" s="12">
-        <f>H10*30</f>
-        <v>3000</v>
-      </c>
-    </row>
-    <row r="16" spans="3:13" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="17" spans="3:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="3:16" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C15" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="D15" s="22">
+        <f>H11</f>
+        <v>6150</v>
+      </c>
+    </row>
+    <row r="16" spans="3:16" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="17" spans="7:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="L17" s="10"/>
     </row>
-    <row r="18" spans="3:12" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C18" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="D18" s="17"/>
-      <c r="E18" s="17"/>
-      <c r="F18" s="17"/>
-      <c r="G18" s="17"/>
-    </row>
-    <row r="19" spans="3:12" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C19" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E19" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F19" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="G19" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="20" spans="3:12" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C20" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E20" s="3">
-        <v>70</v>
-      </c>
-      <c r="F20" s="2">
-        <v>12</v>
-      </c>
-      <c r="G20" s="3">
-        <f>E20*F20</f>
-        <v>840</v>
-      </c>
-    </row>
-    <row r="21" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="C21" s="5"/>
-      <c r="D21" s="5"/>
-      <c r="E21" s="5"/>
-      <c r="F21" s="5"/>
-      <c r="G21" s="5"/>
-      <c r="H21" s="7"/>
-    </row>
-    <row r="22" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="F22" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G22" s="3">
-        <f>SUM(G20:G21)</f>
-        <v>840</v>
-      </c>
-    </row>
-    <row r="23" spans="3:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="H23" s="3"/>
-    </row>
-    <row r="24" spans="3:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C24" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="D24" s="15">
-        <f>H11+G22+D15</f>
-        <v>18720</v>
-      </c>
+    <row r="18" spans="7:12" ht="26.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="19" spans="7:12" ht="26.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="20" spans="7:12" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G20" s="11"/>
+    </row>
+    <row r="24" spans="7:12" x14ac:dyDescent="0.25">
       <c r="H24" s="3"/>
     </row>
-    <row r="25" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="25" spans="7:12" x14ac:dyDescent="0.25">
       <c r="H25" s="3"/>
     </row>
-    <row r="26" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="26" spans="7:12" x14ac:dyDescent="0.25">
       <c r="H26" s="3"/>
     </row>
-    <row r="27" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="27" spans="7:12" x14ac:dyDescent="0.25">
       <c r="H27" s="3"/>
       <c r="L27" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="C2:H3"/>
-    <mergeCell ref="C18:G18"/>
+    <mergeCell ref="K2:O3"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
